--- a/JHKaoHsiungScoreReports/KaoHsingReExamScoreReport/KaoHsingReExamScoreReport/Template/給試務樣版.xlsx
+++ b/JHKaoHsiungScoreReports/KaoHsingReExamScoreReport/KaoHsingReExamScoreReport/Template/給試務樣版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChenCT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjModules\ischoolDesktop\JHEvaluation\JHKaoHsiungScoreReports\KaoHsingReExamScoreReport\KaoHsingReExamScoreReport\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>班級</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,6 +60,10 @@
   <si>
     <t>綜合</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>語文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +157,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,48 +442,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" customWidth="1"/>
+    <col min="3" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -486,6 +495,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
